--- a/Item_Categories_Concordance.xlsx
+++ b/Item_Categories_Concordance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misl\OwnCloud\Distributional Paper\Github_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misl\OwnCloud\Distributional Paper\Github_Output\Github_Repo\DIDA_SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -4817,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -5348,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="3">
         <v>202</v>
@@ -5807,7 +5807,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="3">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3">
         <v>205</v>
@@ -5830,7 +5830,9 @@
       <c r="L4" s="3">
         <v>230</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>249</v>
+      </c>
       <c r="N4" s="3">
         <v>250</v>
       </c>
